--- a/directories.xlsx
+++ b/directories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TovTech_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BDE18A-9A1D-4584-9B44-26E0EDCFFDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D17F9A-7992-4BB2-BDC4-2167405D8D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,22 +71,22 @@
     <t>yeshut_xc content and change names</t>
   </si>
   <si>
-    <t>.\Resources</t>
-  </si>
-  <si>
-    <t>.\Resources\G_Money</t>
-  </si>
-  <si>
-    <t>.\Resources\yeshut</t>
-  </si>
-  <si>
-    <t>.\Resources\Changemat</t>
-  </si>
-  <si>
-    <t>.\Resources\cox</t>
-  </si>
-  <si>
-    <t>.\Resources\yeshut_xc</t>
+    <t>./Resources</t>
+  </si>
+  <si>
+    <t>./Resources/G_Money</t>
+  </si>
+  <si>
+    <t>./Resources/yeshut</t>
+  </si>
+  <si>
+    <t>./Resources/Changemat</t>
+  </si>
+  <si>
+    <t>./Resources/cox</t>
+  </si>
+  <si>
+    <t>./Resources/yeshut_xc</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
